--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10990"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -73,7 +73,7 @@
     <t>BWA</t>
   </si>
   <si>
-    <t>Botswana*</t>
+    <t>Botswana</t>
   </si>
   <si>
     <t>SWZ</t>
@@ -115,7 +115,7 @@
     <t>ZMB</t>
   </si>
   <si>
-    <t>Zambie*</t>
+    <t>Zambie</t>
   </si>
   <si>
     <t>ZWE</t>
@@ -157,13 +157,13 @@
     <t>COG</t>
   </si>
   <si>
-    <t>Congo*</t>
+    <t>République du Congo*</t>
   </si>
   <si>
     <t>COD</t>
   </si>
   <si>
-    <t>DR Congo*</t>
+    <t>RD Congo</t>
   </si>
   <si>
     <t>GNQ</t>
@@ -181,7 +181,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>São Tomé and Príncipe</t>
+    <t>Sao Tomé-et-Principe</t>
   </si>
   <si>
     <t>Afrique Centrale</t>
@@ -250,7 +250,7 @@
     <t>SSD</t>
   </si>
   <si>
-    <t>Soudan du Sud*</t>
+    <t>Soudan du Sud</t>
   </si>
   <si>
     <t>SDN</t>
@@ -262,7 +262,7 @@
     <t>TZA</t>
   </si>
   <si>
-    <t>UR of Tanzania</t>
+    <t>Tanzanie</t>
   </si>
   <si>
     <t>UGA</t>
@@ -364,7 +364,7 @@
     <t>LBR</t>
   </si>
   <si>
-    <t>Libéria</t>
+    <t>Liberia</t>
   </si>
   <si>
     <t>MLI</t>
@@ -382,7 +382,7 @@
     <t>NGA</t>
   </si>
   <si>
-    <t>Nigéria*</t>
+    <t>Nigeria*</t>
   </si>
   <si>
     <t>SEN</t>
@@ -400,7 +400,7 @@
     <t>TGO</t>
   </si>
   <si>
-    <t>Togo*</t>
+    <t>Togo</t>
   </si>
   <si>
     <t>Afrique de l'Ouest</t>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -23,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="172">
-  <si>
-    <t>Retour au Contenu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
   <si>
     <t>Tableau 12 : Indicateurs de genre</t>
   </si>
@@ -1355,11 +1352,9 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
@@ -1371,42 +1366,42 @@
     </row>
     <row r="2" spans="1:10" ht="53" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="F2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>10</v>
-      </c>
-      <c r="J2" s="9" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="C3" s="12">
         <v>0.58099999999999996</v>
@@ -1418,7 +1413,7 @@
         <v>0.53600000000000003</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="14">
         <v>47.2</v>
@@ -1427,18 +1422,18 @@
         <v>19</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="16" t="s">
         <v>15</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="C4" s="17">
         <v>0.73499999999999999</v>
@@ -1450,13 +1445,13 @@
         <v>0.46500000000000002</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G4" s="19">
         <v>39.6</v>
       </c>
       <c r="H4" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I4" s="19">
         <v>39.9</v>
@@ -1467,10 +1462,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="22" t="s">
         <v>17</v>
-      </c>
-      <c r="B5" s="22" t="s">
-        <v>18</v>
       </c>
       <c r="C5" s="23">
         <v>0.61099999999999999</v>
@@ -1482,27 +1477,27 @@
         <v>0.56699999999999995</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="25">
         <v>59.2</v>
       </c>
       <c r="H5" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="22" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>20</v>
       </c>
       <c r="C6" s="23">
         <v>0.52700000000000002</v>
@@ -1531,10 +1526,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>21</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>22</v>
       </c>
       <c r="C7" s="23">
         <v>0.48299999999999998</v>
@@ -1563,10 +1558,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="22" t="s">
         <v>23</v>
-      </c>
-      <c r="B8" s="22" t="s">
-        <v>24</v>
       </c>
       <c r="C8" s="23">
         <v>0.45600000000000002</v>
@@ -1595,10 +1590,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>26</v>
       </c>
       <c r="C9" s="23">
         <v>0.64600000000000002</v>
@@ -1627,10 +1622,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="22" t="s">
         <v>27</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>28</v>
       </c>
       <c r="C10" s="23">
         <v>0.70899999999999996</v>
@@ -1659,10 +1654,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="22" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" s="22" t="s">
-        <v>30</v>
       </c>
       <c r="C11" s="17">
         <v>0.58399999999999996</v>
@@ -1691,10 +1686,10 @@
     </row>
     <row r="12" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>31</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>32</v>
       </c>
       <c r="C12" s="28">
         <v>0.57099999999999995</v>
@@ -1723,10 +1718,10 @@
     </row>
     <row r="13" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" s="33" t="s">
         <v>33</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>34</v>
       </c>
       <c r="C13" s="34">
         <v>0.59030000000000005</v>
@@ -1755,10 +1750,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="22" t="s">
         <v>35</v>
-      </c>
-      <c r="B14" s="22" t="s">
-        <v>36</v>
       </c>
       <c r="C14" s="23">
         <v>0.433</v>
@@ -1770,27 +1765,27 @@
         <v>0.504</v>
       </c>
       <c r="F14" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H14" s="25">
         <v>31.9</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="22" t="s">
         <v>37</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>38</v>
       </c>
       <c r="C15" s="23">
         <v>0.56299999999999994</v>
@@ -1819,10 +1814,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="22" t="s">
         <v>39</v>
-      </c>
-      <c r="B16" s="22" t="s">
-        <v>40</v>
       </c>
       <c r="C16" s="23">
         <v>0.39700000000000002</v>
@@ -1851,10 +1846,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="38" t="s">
         <v>41</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>42</v>
       </c>
       <c r="C17" s="12">
         <v>0.39800000000000002</v>
@@ -1883,10 +1878,10 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="38" t="s">
         <v>43</v>
-      </c>
-      <c r="B18" s="38" t="s">
-        <v>44</v>
       </c>
       <c r="C18" s="12">
         <v>0.57399999999999995</v>
@@ -1898,16 +1893,16 @@
         <v>0.56999999999999995</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G18" s="14">
         <v>42.8</v>
       </c>
       <c r="H18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I18" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J18" s="15">
         <v>58.3</v>
@@ -1915,10 +1910,10 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="22" t="s">
         <v>45</v>
-      </c>
-      <c r="B19" s="22" t="s">
-        <v>46</v>
       </c>
       <c r="C19" s="17">
         <v>0.48</v>
@@ -1947,22 +1942,22 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B20" s="38" t="s">
         <v>47</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>48</v>
       </c>
       <c r="C20" s="12">
         <v>0.59199999999999997</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G20" s="14">
         <v>63.9</v>
@@ -1971,18 +1966,18 @@
         <v>37.5</v>
       </c>
       <c r="I20" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J20" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B21" s="38" t="s">
         <v>49</v>
-      </c>
-      <c r="B21" s="38" t="s">
-        <v>50</v>
       </c>
       <c r="C21" s="12">
         <v>0.70299999999999996</v>
@@ -2011,10 +2006,10 @@
     </row>
     <row r="22" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22" s="22" t="s">
         <v>51</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>52</v>
       </c>
       <c r="C22" s="23">
         <v>0.625</v>
@@ -2026,7 +2021,7 @@
         <v>0.53700000000000003</v>
       </c>
       <c r="F22" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G22" s="25">
         <v>16.399999999999999</v>
@@ -2035,18 +2030,18 @@
         <v>13.8</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C23" s="34">
         <v>0.52944444444444005</v>
@@ -2075,10 +2070,10 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="22" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="22" t="s">
-        <v>55</v>
       </c>
       <c r="C24" s="23">
         <v>0.55400000000000005</v>
@@ -2087,10 +2082,10 @@
         <v>0.89100000000000001</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F24" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G24" s="25">
         <v>80.900000000000006</v>
@@ -2099,82 +2094,82 @@
         <v>28.2</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J24" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="22" t="s">
         <v>56</v>
-      </c>
-      <c r="B25" s="22" t="s">
-        <v>57</v>
       </c>
       <c r="C25" s="23">
         <v>0.52400000000000002</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G25" s="25">
         <v>72.900000000000006</v>
       </c>
       <c r="H25" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J25" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A26" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="22" t="s">
         <v>58</v>
-      </c>
-      <c r="B26" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="C26" s="23">
         <v>0.45900000000000002</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F26" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G26" s="25">
         <v>42</v>
       </c>
       <c r="H26" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J26" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" s="22" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="22" t="s">
-        <v>61</v>
       </c>
       <c r="C27" s="23">
         <v>0.48499999999999999</v>
@@ -2203,10 +2198,10 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A28" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="22" t="s">
         <v>62</v>
-      </c>
-      <c r="B28" s="22" t="s">
-        <v>63</v>
       </c>
       <c r="C28" s="23">
         <v>0.60099999999999998</v>
@@ -2235,10 +2230,10 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A29" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B29" s="22" t="s">
         <v>64</v>
-      </c>
-      <c r="B29" s="22" t="s">
-        <v>65</v>
       </c>
       <c r="C29" s="23">
         <v>0.52800000000000002</v>
@@ -2247,7 +2242,7 @@
         <v>0.95199999999999996</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F29" s="25">
         <v>47.5</v>
@@ -2267,10 +2262,10 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A30" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="22" t="s">
         <v>66</v>
-      </c>
-      <c r="B30" s="22" t="s">
-        <v>67</v>
       </c>
       <c r="C30" s="23">
         <v>0.80400000000000005</v>
@@ -2282,13 +2277,13 @@
         <v>0.34699999999999998</v>
       </c>
       <c r="F30" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G30" s="25">
         <v>52.7</v>
       </c>
       <c r="H30" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I30" s="25">
         <v>19.2</v>
@@ -2299,10 +2294,10 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="22" t="s">
         <v>68</v>
-      </c>
-      <c r="B31" s="22" t="s">
-        <v>69</v>
       </c>
       <c r="C31" s="23">
         <v>0.54300000000000004</v>
@@ -2331,74 +2326,74 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A32" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="22" t="s">
         <v>70</v>
-      </c>
-      <c r="B32" s="22" t="s">
-        <v>71</v>
       </c>
       <c r="C32" s="23">
         <v>0.79600000000000004</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E32" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F32" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G32" s="25">
         <v>40.700000000000003</v>
       </c>
       <c r="H32" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I32" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J32" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A33" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E33" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F33" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G33" s="25">
         <v>76.2</v>
       </c>
       <c r="H33" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I33" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J33" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A34" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" s="16" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" s="16" t="s">
-        <v>75</v>
       </c>
       <c r="C34" s="17">
         <v>0.433</v>
@@ -2407,19 +2402,19 @@
         <v>0.84199999999999997</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G34" s="19">
         <v>60.5</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I34" s="19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J34" s="20">
         <v>23.2</v>
@@ -2427,10 +2422,10 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A35" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="22" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="22" t="s">
-        <v>77</v>
       </c>
       <c r="C35" s="23">
         <v>0.51</v>
@@ -2442,27 +2437,27 @@
         <v>0.54500000000000004</v>
       </c>
       <c r="F35" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G35" s="25">
         <v>89.9</v>
       </c>
       <c r="H35" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I35" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J35" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A36" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="22" t="s">
         <v>78</v>
-      </c>
-      <c r="B36" s="22" t="s">
-        <v>79</v>
       </c>
       <c r="C36" s="23">
         <v>0.52900000000000003</v>
@@ -2491,10 +2486,10 @@
     </row>
     <row r="37" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="22" t="s">
         <v>80</v>
-      </c>
-      <c r="B37" s="22" t="s">
-        <v>81</v>
       </c>
       <c r="C37" s="23">
         <v>0.54400000000000004</v>
@@ -2523,10 +2518,10 @@
     </row>
     <row r="38" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B38" s="33" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C38" s="34">
         <v>0.56230769230768995</v>
@@ -2555,10 +2550,10 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A39" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="39" t="s">
         <v>83</v>
-      </c>
-      <c r="B39" s="39" t="s">
-        <v>84</v>
       </c>
       <c r="C39" s="12">
         <v>0.748</v>
@@ -2570,13 +2565,13 @@
         <v>0.42899999999999999</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G39" s="14">
         <v>79.900000000000006</v>
       </c>
       <c r="H39" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I39" s="14">
         <v>41.2</v>
@@ -2587,10 +2582,10 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="B40" s="22" t="s">
         <v>85</v>
-      </c>
-      <c r="B40" s="22" t="s">
-        <v>86</v>
       </c>
       <c r="C40" s="23">
         <v>0.70699999999999996</v>
@@ -2602,27 +2597,27 @@
         <v>0.44900000000000001</v>
       </c>
       <c r="F40" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G40" s="25">
         <v>78.599999999999994</v>
       </c>
       <c r="H40" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I40" s="25">
         <v>64.599999999999994</v>
       </c>
       <c r="J40" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="B41" s="39" t="s">
         <v>87</v>
-      </c>
-      <c r="B41" s="39" t="s">
-        <v>88</v>
       </c>
       <c r="C41" s="12">
         <v>0.72399999999999998</v>
@@ -2634,27 +2629,27 @@
         <v>0.252</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G41" s="14">
         <v>40.799999999999997</v>
       </c>
       <c r="H41" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I41" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J41" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A42" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" s="39" t="s">
         <v>89</v>
-      </c>
-      <c r="B42" s="39" t="s">
-        <v>90</v>
       </c>
       <c r="C42" s="12">
         <v>0.54600000000000004</v>
@@ -2666,16 +2661,16 @@
         <v>0.63400000000000001</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G42" s="14">
         <v>88.1</v>
       </c>
       <c r="H42" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I42" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J42" s="15">
         <v>52.2</v>
@@ -2683,10 +2678,10 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A43" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="22" t="s">
         <v>91</v>
-      </c>
-      <c r="B43" s="22" t="s">
-        <v>92</v>
       </c>
       <c r="C43" s="23">
         <v>0.68600000000000005</v>
@@ -2715,10 +2710,10 @@
     </row>
     <row r="44" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="22" t="s">
         <v>93</v>
-      </c>
-      <c r="B44" s="22" t="s">
-        <v>94</v>
       </c>
       <c r="C44" s="23">
         <v>0.74</v>
@@ -2747,10 +2742,10 @@
     </row>
     <row r="45" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="32" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="33" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45" s="34">
         <v>0.69183333333332997</v>
@@ -2779,10 +2774,10 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A46" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="22" t="s">
         <v>96</v>
-      </c>
-      <c r="B46" s="22" t="s">
-        <v>97</v>
       </c>
       <c r="C46" s="23">
         <v>0.54500000000000004</v>
@@ -2811,10 +2806,10 @@
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A47" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="22" t="s">
         <v>98</v>
-      </c>
-      <c r="B47" s="22" t="s">
-        <v>99</v>
       </c>
       <c r="C47" s="23">
         <v>0.45200000000000001</v>
@@ -2843,10 +2838,10 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A48" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="22" t="s">
         <v>100</v>
-      </c>
-      <c r="B48" s="22" t="s">
-        <v>101</v>
       </c>
       <c r="C48" s="23">
         <v>0.66500000000000004</v>
@@ -2858,7 +2853,7 @@
         <v>0.39700000000000002</v>
       </c>
       <c r="F48" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G48" s="25">
         <v>36.799999999999997</v>
@@ -2867,18 +2862,18 @@
         <v>9.9</v>
       </c>
       <c r="I48" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J48" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A49" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="B49" s="22" t="s">
         <v>102</v>
-      </c>
-      <c r="B49" s="22" t="s">
-        <v>103</v>
       </c>
       <c r="C49" s="23">
         <v>0.53800000000000003</v>
@@ -2907,10 +2902,10 @@
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A50" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="B50" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="C50" s="23">
         <v>0.496</v>
@@ -2922,7 +2917,7 @@
         <v>0.61199999999999999</v>
       </c>
       <c r="F50" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G50" s="25">
         <v>87.8</v>
@@ -2931,7 +2926,7 @@
         <v>44.9</v>
       </c>
       <c r="I50" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J50" s="26">
         <v>48.4</v>
@@ -2939,10 +2934,10 @@
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A51" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="B51" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="C51" s="17">
         <v>0.61099999999999999</v>
@@ -2971,10 +2966,10 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A52" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="B52" s="22" t="s">
         <v>108</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>109</v>
       </c>
       <c r="C52" s="23">
         <v>0.47699999999999998</v>
@@ -2983,7 +2978,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="E52" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F52" s="25">
         <v>56.7</v>
@@ -3003,42 +2998,42 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A53" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="B53" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="B53" s="22" t="s">
-        <v>111</v>
       </c>
       <c r="C53" s="23">
         <v>0.48</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E53" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F53" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G53" s="25">
         <v>59.7</v>
       </c>
       <c r="H53" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I53" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J53" s="26" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A54" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="22" t="s">
         <v>112</v>
-      </c>
-      <c r="B54" s="22" t="s">
-        <v>113</v>
       </c>
       <c r="C54" s="23">
         <v>0.48</v>
@@ -3067,10 +3062,10 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A55" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="B55" s="22" t="s">
-        <v>115</v>
       </c>
       <c r="C55" s="23">
         <v>0.434</v>
@@ -3099,10 +3094,10 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A56" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="22" t="s">
         <v>116</v>
-      </c>
-      <c r="B56" s="22" t="s">
-        <v>117</v>
       </c>
       <c r="C56" s="23">
         <v>0.39400000000000002</v>
@@ -3114,16 +3109,16 @@
         <v>0.64200000000000002</v>
       </c>
       <c r="F56" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G56" s="25">
         <v>84.4</v>
       </c>
       <c r="H56" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I56" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J56" s="26">
         <v>25.6</v>
@@ -3131,10 +3126,10 @@
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A57" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" s="39" t="s">
         <v>118</v>
-      </c>
-      <c r="B57" s="39" t="s">
-        <v>119</v>
       </c>
       <c r="C57" s="12">
         <v>0.53900000000000003</v>
@@ -3143,7 +3138,7 @@
         <v>0.88100000000000001</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F57" s="14">
         <v>46</v>
@@ -3163,10 +3158,10 @@
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A58" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" s="22" t="s">
         <v>120</v>
-      </c>
-      <c r="B58" s="22" t="s">
-        <v>121</v>
       </c>
       <c r="C58" s="23">
         <v>0.51200000000000001</v>
@@ -3195,10 +3190,10 @@
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A59" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="22" t="s">
         <v>122</v>
-      </c>
-      <c r="B59" s="22" t="s">
-        <v>123</v>
       </c>
       <c r="C59" s="23">
         <v>0.45200000000000001</v>
@@ -3227,10 +3222,10 @@
     </row>
     <row r="60" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="B60" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="B60" s="16" t="s">
-        <v>125</v>
       </c>
       <c r="C60" s="17">
         <v>0.51500000000000001</v>
@@ -3260,7 +3255,7 @@
     <row r="61" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="32"/>
       <c r="B61" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C61" s="34">
         <v>0.50600000000000001</v>
@@ -3290,7 +3285,7 @@
     <row r="62" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="40"/>
       <c r="B62" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C62" s="42">
         <v>0.56073584905660001</v>
@@ -3320,7 +3315,7 @@
     <row r="63" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="40"/>
       <c r="B63" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C63" s="42">
         <v>0.78479104477612005</v>
@@ -3350,7 +3345,7 @@
     <row r="64" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A64" s="46"/>
       <c r="B64" s="47" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C64" s="48">
         <v>0.74818181818181995</v>
@@ -3380,7 +3375,7 @@
     <row r="65" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A65" s="46"/>
       <c r="B65" s="52" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C65" s="53">
         <v>0.67279310344828003</v>
@@ -3410,7 +3405,7 @@
     <row r="66" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="46"/>
       <c r="B66" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C66" s="58">
         <v>0.72128877005348002</v>
@@ -3440,7 +3435,7 @@
     <row r="67" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A67" s="46"/>
       <c r="B67" s="52" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C67" s="53">
         <v>0.58404999999999996</v>
@@ -3470,7 +3465,7 @@
     <row r="68" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A68" s="46"/>
       <c r="B68" s="52" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C68" s="53">
         <v>0.52875000000000005</v>
@@ -3500,7 +3495,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A69" s="46"/>
       <c r="B69" s="52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C69" s="53">
         <v>0.51383333333333003</v>
@@ -3530,7 +3525,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A70" s="46"/>
       <c r="B70" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="53">
         <v>0.53536363636364004</v>
@@ -3560,7 +3555,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A71" s="46"/>
       <c r="B71" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="53">
         <v>0.50600000000000001</v>
@@ -3590,7 +3585,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A72" s="46"/>
       <c r="B72" s="52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C72" s="53">
         <v>0.50800000000000001</v>
@@ -3620,7 +3615,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A73" s="46"/>
       <c r="B73" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C73" s="53">
         <v>0.59962499999999996</v>
@@ -3650,7 +3645,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A74" s="46"/>
       <c r="B74" s="52" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C74" s="53">
         <v>0.68879999999999997</v>
@@ -3680,7 +3675,7 @@
     <row r="75" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="46"/>
       <c r="B75" s="57" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C75" s="58">
         <v>0.5665</v>
@@ -3710,7 +3705,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A76" s="46"/>
       <c r="B76" s="52" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C76" s="53">
         <v>0.72929999999999995</v>
@@ -3740,7 +3735,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" s="46"/>
       <c r="B77" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C77" s="53">
         <v>0.76316666666666999</v>
@@ -3770,7 +3765,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" s="46"/>
       <c r="B78" s="52" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C78" s="53">
         <v>0.89685185185185001</v>
@@ -3800,7 +3795,7 @@
     <row r="79" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="46"/>
       <c r="B79" s="57" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C79" s="58">
         <v>0.90110526315788997</v>
@@ -3830,7 +3825,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" s="46"/>
       <c r="B80" s="52" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C80" s="53">
         <v>0.60055555555555995</v>
@@ -3860,7 +3855,7 @@
     <row r="81" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A81" s="46"/>
       <c r="B81" s="52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C81" s="53">
         <v>0.75814999999999999</v>
@@ -3890,7 +3885,7 @@
     <row r="82" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A82" s="46"/>
       <c r="B82" s="52" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C82" s="53">
         <v>0.55259090909091002</v>
@@ -3920,7 +3915,7 @@
     <row r="83" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="46"/>
       <c r="B83" s="57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C83" s="58">
         <v>0.78946491228070004</v>
@@ -3950,7 +3945,7 @@
     <row r="84" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A84" s="46"/>
       <c r="B84" s="52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C84" s="53">
         <v>0.46949999999999997</v>
@@ -3980,7 +3975,7 @@
     <row r="85" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A85" s="46"/>
       <c r="B85" s="52" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C85" s="53">
         <v>0.51600000000000001</v>
@@ -4010,7 +4005,7 @@
     <row r="86" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A86" s="46"/>
       <c r="B86" s="52" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C86" s="53">
         <v>0.59482608695651995</v>
@@ -4040,7 +4035,7 @@
     <row r="87" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A87" s="46"/>
       <c r="B87" s="52" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C87" s="53">
         <v>0.65803225806452004</v>
@@ -4070,7 +4065,7 @@
     <row r="88" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A88" s="46"/>
       <c r="B88" s="52" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C88" s="53">
         <v>0.70185714285713996</v>
@@ -4100,7 +4095,7 @@
     <row r="89" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A89" s="46"/>
       <c r="B89" s="52" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C89" s="53">
         <v>0.76788888888888995</v>
@@ -4130,7 +4125,7 @@
     <row r="90" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="46"/>
       <c r="B90" s="57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C90" s="58">
         <v>0.88627272727272999</v>
@@ -4160,7 +4155,7 @@
     <row r="91" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A91" s="46"/>
       <c r="B91" s="52" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C91" s="53">
         <v>0.4955</v>
@@ -4190,7 +4185,7 @@
     <row r="92" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A92" s="46"/>
       <c r="B92" s="52" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C92" s="53">
         <v>0.58315384615385002</v>
@@ -4220,7 +4215,7 @@
     <row r="93" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A93" s="46"/>
       <c r="B93" s="52" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C93" s="53">
         <v>0.65400000000000003</v>
@@ -4232,7 +4227,7 @@
         <v>0.42699999999999999</v>
       </c>
       <c r="F93" s="55" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G93" s="55">
         <v>47.866666666666703</v>
@@ -4250,7 +4245,7 @@
     <row r="94" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A94" s="46"/>
       <c r="B94" s="52" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C94" s="53">
         <v>0.72493333333332999</v>
@@ -4280,7 +4275,7 @@
     <row r="95" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A95" s="46"/>
       <c r="B95" s="52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C95" s="53">
         <v>0.50149999999999995</v>
@@ -4310,7 +4305,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="46"/>
       <c r="B96" s="57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C96" s="58">
         <v>0.70274999999999999</v>
@@ -4340,7 +4335,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="46"/>
       <c r="B97" s="52" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C97" s="53">
         <v>0.51280555555555996</v>
@@ -4370,7 +4365,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="46"/>
       <c r="B98" s="52" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C98" s="53">
         <v>0.60844444444444001</v>
@@ -4400,7 +4395,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="46"/>
       <c r="B99" s="57" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C99" s="58">
         <v>0.49641666666667</v>
@@ -4441,7 +4436,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
@@ -4455,7 +4450,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="65" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
@@ -4469,7 +4464,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="65" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
@@ -4483,7 +4478,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="65" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
@@ -4497,7 +4492,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="65" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
@@ -4533,7 +4528,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
@@ -4557,7 +4552,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -4570,7 +4565,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
@@ -4594,7 +4589,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -4607,7 +4602,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>
@@ -4631,7 +4626,6 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" location="Contenu!A1" display="Retour au Contenu"/>
     <hyperlink ref="B108" r:id="rId1"/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="172">
   <si>
     <t>Tableau 12 : Indicateurs de genre</t>
   </si>
@@ -490,19 +490,22 @@
     <t>RDM, pays les moins avancés</t>
   </si>
   <si>
-    <t>Afrique, petits Etats insulaires en développement</t>
-  </si>
-  <si>
-    <t>RDM, petits Etats insulaires en développement</t>
+    <t>Afrique, petits États insulaires en développement</t>
+  </si>
+  <si>
+    <t>RDM, petits États insulaires en développement</t>
   </si>
   <si>
     <t>Afrique, pays en développement sans littoral</t>
   </si>
   <si>
-    <t>Afrique, Etats fragiles</t>
-  </si>
-  <si>
-    <t>RDM, Etats fragiles</t>
+    <t>RDM, pays en développement sans littoral</t>
+  </si>
+  <si>
+    <t>Afrique, États fragiles</t>
+  </si>
+  <si>
+    <t>RDM, États fragiles</t>
   </si>
   <si>
     <t>États extrêmement fragiles</t>
@@ -517,7 +520,7 @@
     <t>Communautées économiques régionales : CEN-SAD = "Communauté des États sahélo-sahariens ";COMESA = "Marché commun de l'Afrique orientale et australe";CAE = "Communauté d'Afrique de l'Est ";CEEAC = "Communauté économique des États de l'Afrique centrale";CÉDÉAOO = "Communauté économique des États de l'Afrique de l'Ouest";IGAD = "Autorité intergouvernementale pour le développement";CDAA = "Communauté de développement d'Afrique australe";UMA = "Union du Maghreb arabe";ASEAN = "Association des nations de l'Asie du Sud-Est";MERCOSUR = "Marché commun du Sud";</t>
   </si>
   <si>
-    <t>Responsabilité : Ce document, ainsi que les données et cartes qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
+    <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
     <t>Source : Données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2020), Institutions sociales et indice de parité hommes-femmes, Centre de développement de l'OCDE (mise à jour avec une nouvelle méthodologie, décembre 2018).</t>
@@ -4188,7 +4191,7 @@
         <v>154</v>
       </c>
       <c r="C92" s="53">
-        <v>0.58315384615385002</v>
+        <v>0.58099999999999996</v>
       </c>
       <c r="D92" s="53">
         <v>0.85260000000000002</v>
@@ -4305,7 +4308,7 @@
     <row r="96" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="46"/>
       <c r="B96" s="57" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C96" s="58">
         <v>0.70274999999999999</v>
@@ -4335,7 +4338,7 @@
     <row r="97" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A97" s="46"/>
       <c r="B97" s="52" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C97" s="53">
         <v>0.51280555555555996</v>
@@ -4365,7 +4368,7 @@
     <row r="98" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A98" s="46"/>
       <c r="B98" s="52" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C98" s="53">
         <v>0.60844444444444001</v>
@@ -4395,7 +4398,7 @@
     <row r="99" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="46"/>
       <c r="B99" s="57" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C99" s="58">
         <v>0.49641666666667</v>
@@ -4436,7 +4439,7 @@
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A101" s="65" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
@@ -4450,7 +4453,7 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A102" s="65" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B102" s="66"/>
       <c r="C102" s="67"/>
@@ -4464,7 +4467,7 @@
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A103" s="65" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B103" s="66"/>
       <c r="C103" s="67"/>
@@ -4478,7 +4481,7 @@
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A104" s="65" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B104" s="66"/>
       <c r="C104" s="67"/>
@@ -4492,7 +4495,7 @@
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A105" s="65" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B105" s="66"/>
       <c r="C105" s="67"/>
@@ -4528,7 +4531,7 @@
     </row>
     <row r="108" spans="1:10" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B108" s="68" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
@@ -4552,7 +4555,7 @@
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B110" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C110" s="67"/>
       <c r="D110" s="67"/>
@@ -4565,7 +4568,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B111" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C111" s="67"/>
       <c r="D111" s="67"/>
@@ -4589,7 +4592,7 @@
     </row>
     <row r="113" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B113" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C113" s="67"/>
       <c r="D113" s="67"/>
@@ -4602,7 +4605,7 @@
     </row>
     <row r="114" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B114" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C114" s="67"/>
       <c r="D114" s="67"/>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -523,7 +523,7 @@
     <t>Responsabilité : Ce tableau ainsi que toutes les données qu'il peut comprendre, sont sans préjudice du statut de tout territoire, de la souveraineté s'exerçant sur ce dernier, du tracé des frontières et limites internationales, et du nom de tout territoire, ville ou région.</t>
   </si>
   <si>
-    <t>Source : Données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2020), Institutions sociales et indice de parité hommes-femmes, Centre de développement de l'OCDE (mise à jour avec une nouvelle méthodologie, décembre 2018).</t>
+    <t>Source : Données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2021), Institutions sociales et indice de parité hommes-femmes, Centre de développement de l'OCDE (mise à jour avec une nouvelle méthodologie, décembre 2018).</t>
   </si>
   <si>
     <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10400"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5590"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -481,7 +481,7 @@
     <t>RDM, pays à revenu intermédiaire, tranche supérieure</t>
   </si>
   <si>
-    <t>Pays à revenu élévé</t>
+    <t>Pays à revenu élevé</t>
   </si>
   <si>
     <t>Afrique, pays les moins avancés</t>

--- a/DDAf_2022_Tableau_annexe_Tab12.xlsx
+++ b/DDAf_2022_Tableau_annexe_Tab12.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11490"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12490"/>
   </bookViews>
   <sheets>
     <sheet name="Tab12" sheetId="1" r:id="rId1"/>
@@ -526,7 +526,7 @@
     <t>Source : Données en ligne du développement humain du Programme des Nations Unies pour le développement (édition 2021), Institutions sociales et indice de parité hommes-femmes, Centre de développement de l'OCDE (mise à jour avec une nouvelle méthodologie, décembre 2018).</t>
   </si>
   <si>
-    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr.</t>
+    <t>Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2023-fr.</t>
   </si>
   <si>
     <t>Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails.</t>
@@ -4629,7 +4629,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B108" r:id="rId1"/>
+    <hyperlink ref="B108" r:id="rId1" display="Si vous souhaitez explorer ces statistiques plus en profondeur, consulter les valeurs historiques de ces indicateurs ou produire des visualisations interactives, veuillez visiter le site Web https://oe.cd/AFDD-2022-fr."/>
     <hyperlink ref="B110" r:id="rId2"/>
     <hyperlink ref="B111" r:id="rId3"/>
     <hyperlink ref="B113" r:id="rId4"/>
